--- a/script/DeepSTL_convert/px4_docs/px4_mission/result.xlsx
+++ b/script/DeepSTL_convert/px4_docs/px4_mission/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15540"/>
+    <workbookView windowHeight="14780"/>
   </bookViews>
   <sheets>
     <sheet name="mtl" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="221">
   <si>
     <t>index</t>
   </si>
@@ -89,6 +89,9 @@
     <t>Here, we express that globally (G), if Mission mode (M) is active, then a Position estimate (P) must be available. This formula ensures the prerequisite of having a position estimate for Mission mode to function.</t>
   </si>
   <si>
+    <t>{'section-id': 1, 'sentence-id': 0, 'sentence': '1.This mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'tl': 'always ( e1Thisrequire == salobalglodalitionestimateS ) or ( GPSinferedalocal == lplosiositiocal ) )'}</t>
+  </si>
+  <si>
     <t>11-11</t>
   </si>
   <si>
@@ -156,6 +159,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>{'section-id': 2, 'sentence-id': 4, 'sentence': '1.If no mission is stored, or if PX4 has finished executing all mission commands, or if the mission is not feasible:', 'tl': 'always ( misionsto == red or PX4finisedexecuting == misionsiocmomands or not ( mis == misisonsocmnoms ) -&gt; not ( misisomnon == feasisisisionlefasible ) )'}</t>
   </si>
   <si>
     <t>34-34</t>
@@ -241,6 +247,9 @@
     <t>PX4 will execute the [mission/flight plan](../flying/missions.md).</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 10, 'sentence': 'PX4 will execute the mission/flight plan.', 'tl': 'always ( PX4executemisison == flightplan )'}</t>
+  </si>
+  <si>
     <t>41-41</t>
   </si>
   <si>
@@ -271,6 +280,10 @@
     <t>M represents a stored mission, FE represents finished execution, FL represents flying state, and H represents hold state. The formula ensures that globally, if there's no mission, or execution is finished, and the vehicle is flying, it will hold.</t>
   </si>
   <si>
+    <t>{'section-id': 2, 'sentence-id': 5, 'sentence': 'If flying the vehicle will hold.', 'tl': 'always ( flyingvehicl == e )'}
+{'section-id': 2, 'sentence-id': 12, 'sentence': '4.If no mission is stored, or if PX4 has finished executing all mission commands:', 'tl': 'always ( misionst == ored or PX4finisedexecuting == misionsiocmnsomands -&gt; misocm == mSomandss )'}</t>
+  </si>
+  <si>
     <t>44-44</t>
   </si>
   <si>
@@ -568,6 +581,9 @@
     <t>Globally (G), when Approaching (A) or Leaving (L) a waypoint, it implies that in the Future (F), there's a speed Change (C). This formula captures the speed adjustment near waypoints.</t>
   </si>
   <si>
+    <t>{'section-id': 10, 'sentence-id': 1, 'sentence': 'MC vehicles will change the _speed_ when approaching or leaving a waypoint based on the jerk-limited tuning.', 'tl': 'always ( sMehicles == _sped_aproching or rise ( leavingawa == aysedntbasedjerklimiter == imitedtnerklitedtn ) )'}</t>
+  </si>
+  <si>
     <t>199-199</t>
   </si>
   <si>
@@ -595,6 +611,9 @@
     <t>R represents entering the acceptance radius, and N represents switching to the next waypoint. This formula ensures that globally, when a vehicle enters the acceptance radius, in the next state it switches to the next waypoint.</t>
   </si>
   <si>
+    <t>{'section-id': 10, 'sentence-id': 4, 'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'tl': 'always ( rise ( Vehicleswitch == waypeyaceptanceptancera == NAV_AC_C_RAD ) )'}</t>
+  </si>
+  <si>
     <t>208-208</t>
   </si>
   <si>
@@ -622,6 +641,9 @@
     <t>Globally (G), during mission Execution (E) if a takeoff mission is planned(T), the vehicle ascends Vertically (V) Until (U) it reaches the minimum altitude, then Heads (H) towards the target Position (P). This captures the sequence of actions during takeoff.</t>
   </si>
   <si>
+    <t>{'section-id': 11, 'sentence-id': 1, 'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'tl': 'always ( ( misionevehice == ascedvertical ) until ( iminedvertil == miminl ) -&gt; ( MIS_TKEOFLTpe == amSaredtwasiosiDpineditinei ) until ( micied == sisisinedmicosedoined ) )'}</t>
+  </si>
+  <si>
     <t>212-212</t>
   </si>
   <si>
@@ -652,40 +674,13 @@
     <t>{'section-id': 11, 'sentence-id': 3, 'sentence': 'If the vehicle is already flying when the mission is started, a takeoff mission item is treated as a normal waypoint.', 'tl': 'always ( vehiclealea == dylying ) and atatkeofmisiofmis == teionitemtratedatedateda == edanoedanoratedanorma )'}</t>
   </si>
   <si>
-    <t>{'section-id': 1, 'sentence-id': 0, 'sentence': '1.This mode requires a global 3d position estimate (from GPS or inferred from a local position).', 'tl': 'always ( e1Thisrequire == salobalglodalitionestimateS ) or ( GPSinferedalocal == lplosiositiocal ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 4, 'sentence': '1.If no mission is stored, or if PX4 has finished executing all mission commands, or if the mission is not feasible:', 'tl': 'always ( misionsto == red or PX4finisedexecuting == misionsiocmomands or not ( mis == misisonsocmnoms ) -&gt; not ( misisomnon == feasisisisionlefasible ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 10, 'sentence': 'PX4 will execute the mission/flight plan.', 'tl': 'always ( PX4executemisison == flightplan )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 10, 'sentence-id': 4, 'sentence': 'Vehicles switch to the next waypoint as soon as they enter the acceptance radius (NAV_ACC_RAD).', 'tl': 'always ( rise ( Vehicleswitch == waypeyaceptanceptancera == NAV_AC_C_RAD ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 12, 'sentence': '4.If no mission is stored, or if PX4 has finished executing all mission commands:', 'tl': 'always ( misionst == ored or PX4finisedexecuting == misionsiocmnsomands -&gt; misocm == mSomandss )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 11, 'sentence-id': 1, 'sentence': 'During mission execution this will cause the vehicle to ascend vertically to the minimum takeoff altitude defined in the MIS_TAKEOFF_ALT parameter, then head towards the 3D position defined in the mission item.', 'tl': 'always ( ( misionevehice == ascedvertical ) until ( iminedvertil == miminl ) -&gt; ( MIS_TKEOFLTpe == amSaredtwasiosiDpineditinei ) until ( micied == sisisinedmicosedoined ) )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 2, 'sentence-id': 13, 'sentence': 'If flying the vehicle will hold.', 'tl': 'always ( flyingvehicl == e )'}</t>
-  </si>
-  <si>
     <t>{'section-id': 1, 'sentence-id': 5, 'sentence': 'This is true for multicopters and VTOL in MC mode.', 'tl': 'always ( This == multicopters and VTOL == MC )'}</t>
   </si>
   <si>
-    <t>{'section-id': 2, 'sentence-id': 14, 'sentence': 'If landed the vehicle will "wait".', 'tl': 'always ( landedvehicle == wait )'}</t>
-  </si>
-  <si>
     <t>{'section-id': 2, 'sentence-id': 15, 'sentence': '5.You can manually change the current mission command by selecting it in _QGroundControl_.', 'tl': 'always ( rise ( l5Youcanmanulyc == resintmiocmand ) and andyselectingit == _QGrondCongit_ )'}</t>
   </si>
   <si>
     <t>{'section-id': 3, 'sentence-id': 0, 'sentence': 'Missions are uploaded onto a SD card that needs to be inserted before booting up the autopilot.', 'tl': 'always ( Misionsuploadedo == SaSDcard )'}</t>
-  </si>
-  <si>
-    <t>{'section-id': 10, 'sentence-id': 1, 'sentence': 'MC vehicles will change the _speed_ when approaching or leaving a waypoint based on the jerk-limited tuning.', 'tl': 'always ( sMehicles == _sped_aproching or rise ( leavingawa == aysedntbasedjerklimiter == imitedtnerklitedtn ) )'}</t>
   </si>
   <si>
     <t>{'section-id': 5, 'sentence-id': 1, 'sentence': 'We recommend you centre the control sticks before switching to any other mode.', 'tl': 'always ( Werecommendyoucentr == trolsticksswitching == other )'}</t>
@@ -710,14 +705,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1195,158 +1183,158 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1697,8 +1685,8 @@
   <sheetPr/>
   <dimension ref="A1:N62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1799,22 +1787,22 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" t="s">
-        <v>7</v>
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1825,34 +1813,34 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1863,22 +1851,22 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
       </c>
       <c r="I5" t="s">
         <v>7</v>
@@ -1887,10 +1875,10 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1898,19 +1886,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -1936,19 +1924,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
@@ -1963,13 +1951,13 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:12">
+        <v>40</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1977,23 +1965,29 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
@@ -2003,22 +1997,22 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" t="s">
         <v>7</v>
@@ -2027,10 +2021,10 @@
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L9" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2041,22 +2035,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="s">
         <v>7</v>
@@ -2065,10 +2059,10 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2079,34 +2073,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" t="s">
-        <v>7</v>
+        <v>59</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2117,22 +2111,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12" t="s">
         <v>7</v>
@@ -2141,10 +2135,10 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" t="s">
-        <v>7</v>
+        <v>64</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2155,19 +2149,19 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H13" t="s">
         <v>7</v>
@@ -2193,23 +2187,35 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
+        <v>43</v>
+      </c>
+      <c r="G14" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15">
@@ -2219,34 +2225,34 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>74</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L15" t="s">
-        <v>7</v>
+        <v>77</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:12">
@@ -2257,16 +2263,16 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
@@ -2275,7 +2281,7 @@
       <c r="K16"/>
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" ht="26" customHeight="1" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2283,22 +2289,22 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
+        <v>82</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>7</v>
@@ -2307,10 +2313,10 @@
         <v>7</v>
       </c>
       <c r="K17" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" t="s">
-        <v>7</v>
+        <v>49</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -2321,22 +2327,22 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18" t="s">
         <v>7</v>
@@ -2345,10 +2351,10 @@
         <v>7</v>
       </c>
       <c r="K18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" t="s">
-        <v>7</v>
+        <v>54</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2356,25 +2362,25 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E19" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19" t="s">
         <v>7</v>
@@ -2394,25 +2400,25 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H20" t="s">
-        <v>7</v>
+        <v>96</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20" t="s">
         <v>7</v>
@@ -2435,34 +2441,34 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
-      </c>
-      <c r="H21" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
-      </c>
-      <c r="L21" t="s">
-        <v>7</v>
+        <v>101</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -2470,19 +2476,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G22" t="s">
         <v>7</v>
@@ -2508,25 +2514,25 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G23" t="s">
-        <v>106</v>
-      </c>
-      <c r="H23" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -2535,10 +2541,10 @@
         <v>7</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
-      </c>
-      <c r="L23" t="s">
-        <v>7</v>
+        <v>110</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2549,22 +2555,22 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G24" t="s">
-        <v>111</v>
-      </c>
-      <c r="H24" t="s">
-        <v>7</v>
+        <v>115</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>7</v>
@@ -2573,10 +2579,10 @@
         <v>7</v>
       </c>
       <c r="K24" t="s">
-        <v>111</v>
-      </c>
-      <c r="L24" t="s">
-        <v>7</v>
+        <v>115</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -2587,34 +2593,34 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F25" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G25" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" t="s">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>116</v>
-      </c>
-      <c r="J25" t="s">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" t="s">
-        <v>7</v>
+        <v>120</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -2625,22 +2631,22 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G26" t="s">
-        <v>121</v>
-      </c>
-      <c r="H26" t="s">
-        <v>7</v>
+        <v>125</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26" t="s">
         <v>7</v>
@@ -2660,25 +2666,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G27" t="s">
-        <v>126</v>
-      </c>
-      <c r="H27" t="s">
-        <v>7</v>
+        <v>130</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>7</v>
@@ -2687,10 +2693,10 @@
         <v>7</v>
       </c>
       <c r="K27" t="s">
-        <v>126</v>
-      </c>
-      <c r="L27" t="s">
-        <v>7</v>
+        <v>130</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -2701,22 +2707,22 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>131</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>7</v>
@@ -2739,22 +2745,22 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D29" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E29" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
-      </c>
-      <c r="H29" t="s">
-        <v>7</v>
+        <v>140</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29" t="s">
         <v>7</v>
@@ -2777,28 +2783,28 @@
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G30" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" t="s">
-        <v>7</v>
+        <v>145</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J30" t="s">
-        <v>7</v>
+        <v>145</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
       </c>
       <c r="K30" t="s">
         <v>7</v>
@@ -2815,34 +2821,34 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" t="s">
-        <v>7</v>
+        <v>150</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
-      </c>
-      <c r="J31" t="s">
-        <v>7</v>
+        <v>150</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>146</v>
-      </c>
-      <c r="L31" t="s">
-        <v>7</v>
+        <v>150</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -2853,34 +2859,34 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F32" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G32" t="s">
-        <v>151</v>
-      </c>
-      <c r="H32" t="s">
-        <v>7</v>
+        <v>155</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" t="s">
-        <v>7</v>
+        <v>155</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>151</v>
-      </c>
-      <c r="L32" t="s">
-        <v>7</v>
+        <v>155</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -2891,16 +2897,16 @@
         <v>15</v>
       </c>
       <c r="C33" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G33" t="s">
         <v>7</v>
@@ -2929,34 +2935,34 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>158</v>
-      </c>
-      <c r="J34" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
-      </c>
-      <c r="L34" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2967,34 +2973,34 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F35" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H35" t="s">
-        <v>7</v>
+        <v>167</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>163</v>
-      </c>
-      <c r="J35" t="s">
-        <v>7</v>
+        <v>167</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>163</v>
-      </c>
-      <c r="L35" t="s">
-        <v>7</v>
+        <v>167</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -3005,22 +3011,22 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D36" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F36" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
-      </c>
-      <c r="H36" t="s">
-        <v>7</v>
+        <v>172</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36" t="s">
         <v>7</v>
@@ -3043,22 +3049,22 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D37" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E37" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G37" t="s">
-        <v>173</v>
-      </c>
-      <c r="H37" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37" t="s">
         <v>7</v>
@@ -3067,13 +3073,13 @@
         <v>7</v>
       </c>
       <c r="K37" t="s">
-        <v>173</v>
-      </c>
-      <c r="L37" t="s">
-        <v>7</v>
+        <v>177</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -3084,22 +3090,22 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G38" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" t="s">
-        <v>7</v>
+        <v>183</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>7</v>
@@ -3108,10 +3114,10 @@
         <v>7</v>
       </c>
       <c r="K38" t="s">
-        <v>7</v>
-      </c>
-      <c r="L38" t="s">
-        <v>7</v>
+        <v>183</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -3122,22 +3128,22 @@
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E39" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" t="s">
-        <v>7</v>
+        <v>188</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39" t="s">
         <v>7</v>
@@ -3146,10 +3152,10 @@
         <v>7</v>
       </c>
       <c r="K39" t="s">
-        <v>183</v>
-      </c>
-      <c r="L39" t="s">
-        <v>7</v>
+        <v>188</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -3160,34 +3166,34 @@
         <v>10</v>
       </c>
       <c r="C40" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E40" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>7</v>
-      </c>
-      <c r="J40" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
       </c>
       <c r="K40" t="s">
-        <v>7</v>
-      </c>
-      <c r="L40" t="s">
-        <v>7</v>
+        <v>193</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -3195,25 +3201,25 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="E41" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="F41" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="G41" t="s">
-        <v>192</v>
-      </c>
-      <c r="H41" t="s">
-        <v>7</v>
+        <v>198</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -3233,37 +3239,37 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" t="s">
-        <v>7</v>
+        <v>203</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>7</v>
-      </c>
-      <c r="J42" t="s">
-        <v>7</v>
+        <v>203</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>7</v>
-      </c>
-      <c r="L42" t="s">
-        <v>7</v>
+        <v>203</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -3274,34 +3280,34 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="E43" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
-      </c>
-      <c r="H43" t="s">
-        <v>7</v>
+        <v>208</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>201</v>
-      </c>
-      <c r="J43" t="s">
-        <v>7</v>
+        <v>208</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>201</v>
-      </c>
-      <c r="L43" t="s">
-        <v>7</v>
+        <v>208</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -3312,22 +3318,22 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D44" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E44" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="G44" t="s">
-        <v>206</v>
-      </c>
-      <c r="H44" t="s">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44" t="s">
         <v>7</v>
@@ -3336,10 +3342,10 @@
         <v>7</v>
       </c>
       <c r="K44" t="s">
-        <v>206</v>
-      </c>
-      <c r="L44" t="s">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -3456,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -3475,26 +3481,8 @@
       <c r="F48" t="s">
         <v>7</v>
       </c>
-      <c r="G48" t="s">
-        <v>207</v>
-      </c>
-      <c r="H48" t="s">
-        <v>7</v>
-      </c>
-      <c r="I48" t="s">
-        <v>207</v>
-      </c>
-      <c r="J48" t="s">
-        <v>7</v>
-      </c>
-      <c r="K48" t="s">
-        <v>207</v>
-      </c>
-      <c r="L48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -3513,26 +3501,8 @@
       <c r="F49" t="s">
         <v>7</v>
       </c>
-      <c r="G49" t="s">
-        <v>208</v>
-      </c>
-      <c r="H49" t="s">
-        <v>7</v>
-      </c>
-      <c r="I49" t="s">
-        <v>208</v>
-      </c>
-      <c r="J49" t="s">
-        <v>7</v>
-      </c>
-      <c r="K49" t="s">
-        <v>209</v>
-      </c>
-      <c r="L49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -3551,26 +3521,8 @@
       <c r="F50" t="s">
         <v>7</v>
       </c>
-      <c r="G50" t="s">
-        <v>209</v>
-      </c>
-      <c r="H50" t="s">
-        <v>7</v>
-      </c>
-      <c r="I50" t="s">
-        <v>209</v>
-      </c>
-      <c r="J50" t="s">
-        <v>7</v>
-      </c>
-      <c r="K50" t="s">
-        <v>210</v>
-      </c>
-      <c r="L50" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -3587,24 +3539,6 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" t="s">
-        <v>211</v>
-      </c>
-      <c r="H51" t="s">
-        <v>7</v>
-      </c>
-      <c r="I51" t="s">
-        <v>210</v>
-      </c>
-      <c r="J51" t="s">
-        <v>7</v>
-      </c>
-      <c r="K51" t="s">
-        <v>212</v>
-      </c>
-      <c r="L51" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3627,26 +3561,16 @@
       <c r="F52" t="s">
         <v>7</v>
       </c>
-      <c r="G52" t="s">
-        <v>213</v>
-      </c>
-      <c r="H52" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" t="s">
-        <v>212</v>
-      </c>
-      <c r="J52" t="s">
-        <v>7</v>
-      </c>
+      <c r="G52"/>
+      <c r="H52"/>
       <c r="K52" t="s">
         <v>214</v>
       </c>
-      <c r="L52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -3665,98 +3589,76 @@
       <c r="F53" t="s">
         <v>7</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
         <v>215</v>
       </c>
-      <c r="H53" t="s">
-        <v>7</v>
-      </c>
-      <c r="I53" t="s">
-        <v>7</v>
-      </c>
-      <c r="J53" t="s">
-        <v>7</v>
-      </c>
-      <c r="K53" t="s">
-        <v>213</v>
-      </c>
-      <c r="L53" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
-      </c>
-      <c r="F54" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
         <v>216</v>
       </c>
-      <c r="H54" t="s">
-        <v>7</v>
-      </c>
-      <c r="I54" t="s">
-        <v>7</v>
-      </c>
-      <c r="J54" t="s">
-        <v>7</v>
-      </c>
-      <c r="K54" t="s">
-        <v>215</v>
-      </c>
-      <c r="L54" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" t="s">
-        <v>7</v>
-      </c>
-      <c r="F55" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" t="s">
-        <v>217</v>
-      </c>
-      <c r="H55" t="s">
-        <v>7</v>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55" t="s">
         <v>7</v>
       </c>
       <c r="J55" t="s">
-        <v>7</v>
-      </c>
-      <c r="K55" t="s">
-        <v>218</v>
-      </c>
-      <c r="L55" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3780,10 +3682,10 @@
         <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>219</v>
-      </c>
-      <c r="H56" t="s">
-        <v>7</v>
+        <v>217</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>7</v>
@@ -3818,10 +3720,10 @@
         <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>220</v>
-      </c>
-      <c r="H57" t="s">
-        <v>7</v>
+        <v>218</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
       </c>
       <c r="I57" t="s">
         <v>7</v>
@@ -3856,10 +3758,10 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>221</v>
-      </c>
-      <c r="H58" t="s">
-        <v>7</v>
+        <v>219</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
       </c>
       <c r="I58" t="s">
         <v>7</v>
@@ -3893,12 +3795,6 @@
       <c r="F59" t="s">
         <v>7</v>
       </c>
-      <c r="G59" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" t="s">
-        <v>7</v>
-      </c>
       <c r="I59" t="s">
         <v>7</v>
       </c>
@@ -3932,10 +3828,10 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>222</v>
-      </c>
-      <c r="H60" t="s">
-        <v>7</v>
+        <v>220</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>7</v>
@@ -3969,23 +3865,23 @@
       <c r="F61" t="s">
         <v>7</v>
       </c>
-      <c r="G61" t="s">
-        <v>210</v>
-      </c>
-      <c r="H61" t="s">
-        <v>7</v>
+      <c r="H61">
+        <f>COUNTIF(H2:H60,0)</f>
+        <v>39</v>
       </c>
       <c r="I61" t="s">
         <v>7</v>
       </c>
-      <c r="J61" t="s">
-        <v>7</v>
+      <c r="J61">
+        <f>COUNTIF(J2:J60,0)</f>
+        <v>15</v>
       </c>
       <c r="K61" t="s">
         <v>7</v>
       </c>
-      <c r="L61" t="s">
-        <v>7</v>
+      <c r="L61">
+        <f>COUNTIF(L2:L60,0)</f>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -4007,23 +3903,23 @@
       <c r="F62" t="s">
         <v>7</v>
       </c>
-      <c r="G62" t="s">
-        <v>212</v>
-      </c>
-      <c r="H62" t="s">
-        <v>7</v>
+      <c r="H62">
+        <f>COUNTIF(H2:H60,1)</f>
+        <v>3</v>
       </c>
       <c r="I62" t="s">
         <v>7</v>
       </c>
-      <c r="J62" t="s">
-        <v>7</v>
+      <c r="J62">
+        <f>COUNTIF(J3:J61,1)</f>
+        <v>1</v>
       </c>
       <c r="K62" t="s">
         <v>7</v>
       </c>
-      <c r="L62" t="s">
-        <v>7</v>
+      <c r="L62">
+        <f>COUNTIF(L3:L61,1)</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
